--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.4811347547275727</v>
+        <v>-0.6344779274269093</v>
       </c>
       <c r="D2">
-        <v>0.6304834216589561</v>
+        <v>0.5323120156426122</v>
       </c>
       <c r="E2">
         <v>1.073260267956798</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.3427065180959155</v>
+        <v>0.4279966473090819</v>
       </c>
       <c r="D3">
-        <v>0.7318621569313275</v>
+        <v>0.6728142949818436</v>
       </c>
       <c r="E3">
         <v>1.073260267956798</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.6231305861728935</v>
+        <v>-0.5070111349266813</v>
       </c>
       <c r="D4">
-        <v>0.5332833423461807</v>
+        <v>0.6171914698719561</v>
       </c>
       <c r="E4">
         <v>1.073260267956798</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.74979146666737</v>
+        <v>-1.385139626929834</v>
       </c>
       <c r="D5">
-        <v>0.0803369797918867</v>
+        <v>0.1798955270010862</v>
       </c>
       <c r="E5">
         <v>1.073260267956798</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.7555601554847363</v>
+        <v>0.8739389008376853</v>
       </c>
       <c r="D6">
-        <v>0.4500189326833102</v>
+        <v>0.3915918748442322</v>
       </c>
       <c r="E6">
         <v>1.097558323328272</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.1435724518398608</v>
+        <v>-0.1340060899979496</v>
       </c>
       <c r="D7">
-        <v>0.8858553241974629</v>
+        <v>0.894616101708182</v>
       </c>
       <c r="E7">
         <v>1.097558323328272</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.8738755893304332</v>
+        <v>-0.7540030934745949</v>
       </c>
       <c r="D8">
-        <v>0.3823109805622957</v>
+        <v>0.4588422144822291</v>
       </c>
       <c r="E8">
         <v>1.097558323328272</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.8646798812953539</v>
+        <v>-0.766869420787153</v>
       </c>
       <c r="D9">
-        <v>0.3873380333026426</v>
+        <v>0.4513107438694757</v>
       </c>
       <c r="E9">
         <v>1.057274265121194</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.890004325023413</v>
+        <v>-1.655138127951737</v>
       </c>
       <c r="D10">
-        <v>0.05892948790142927</v>
+        <v>0.1120937701910276</v>
       </c>
       <c r="E10">
         <v>1.057274265121194</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.7250736133121077</v>
+        <v>-0.624770891960135</v>
       </c>
       <c r="D11">
-        <v>0.4685079076194976</v>
+        <v>0.5385478933085568</v>
       </c>
       <c r="E11">
         <v>1.106481516049881</v>
